--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC623BE-4536-5E4A-A59F-BF646808FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0303A6-C092-2E45-8D48-C3D4FCD41285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
   <si>
     <t>status</t>
   </si>
@@ -399,16 +399,61 @@
   </si>
   <si>
     <t>https://www.sygnia.co/blog/blackcat-ransomware/</t>
+  </si>
+  <si>
+    <t>https://thedfirreport.com/2020/05/08/adfind-recon/</t>
+  </si>
+  <si>
+    <t>adfind</t>
+  </si>
+  <si>
+    <t>2020-05</t>
+  </si>
+  <si>
+    <t>processed100</t>
+  </si>
+  <si>
+    <t>atk_ttp, htool</t>
+  </si>
+  <si>
+    <t>202505-adfind.xlsx</t>
+  </si>
+  <si>
+    <t>processed80</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>processed40</t>
+  </si>
+  <si>
+    <t>atk_ttp, htool, atk_chain, sigma, etpro</t>
+  </si>
+  <si>
+    <t>processed30</t>
+  </si>
+  <si>
+    <t>2021-10</t>
+  </si>
+  <si>
+    <t>processed60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,11 +506,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H48" totalsRowShown="0">
-  <autoFilter ref="A1:H48" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0">
+  <autoFilter ref="A1:H49" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}">
     <filterColumn colId="4">
       <filters>
         <filter val="conti"/>
+        <filter val="ryuk"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -800,16 +846,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07DD3A-F1B0-5046-8DBC-C64F8D37E24D}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
@@ -1004,6 +1050,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
       <c r="B10" t="s">
         <v>52</v>
       </c>
@@ -1024,6 +1073,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1337,7 +1389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>98</v>
       </c>
@@ -1346,7 +1398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>103</v>
       </c>
@@ -1355,16 +1407,30 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
       <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="H35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
         <v>106</v>
       </c>
@@ -1373,7 +1439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>106</v>
       </c>
@@ -1382,25 +1448,59 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
       <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
       <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="H39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
       <c r="E40" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1509,13 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
       <c r="E41" t="s">
         <v>31</v>
       </c>
@@ -1418,7 +1524,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>113</v>
       </c>
@@ -1427,7 +1533,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
       <c r="E43" t="s">
         <v>115</v>
       </c>
@@ -1436,7 +1548,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
       <c r="E44" t="s">
         <v>115</v>
       </c>
@@ -1445,7 +1563,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
       <c r="E45" t="s">
         <v>115</v>
       </c>
@@ -1454,7 +1578,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
       <c r="E46" t="s">
         <v>115</v>
       </c>
@@ -1463,7 +1593,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>39</v>
       </c>
@@ -1472,7 +1602,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="5:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1611,31 @@
         <v>120</v>
       </c>
     </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0303A6-C092-2E45-8D48-C3D4FCD41285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAE464-CDC8-2841-9CC9-EF3C4EA70117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
   <si>
     <t>status</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>processed60</t>
+  </si>
+  <si>
+    <t>2021-08</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,6 +1498,12 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
       <c r="C40" t="s">
         <v>46</v>
       </c>
@@ -1504,7 +1513,9 @@
       <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>

--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAE464-CDC8-2841-9CC9-EF3C4EA70117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F590BA3-453D-F440-B763-B83DE1023F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
   <si>
     <t>status</t>
   </si>
@@ -410,37 +410,55 @@
     <t>2020-05</t>
   </si>
   <si>
-    <t>processed100</t>
-  </si>
-  <si>
     <t>atk_ttp, htool</t>
   </si>
   <si>
-    <t>202505-adfind.xlsx</t>
-  </si>
-  <si>
-    <t>processed80</t>
-  </si>
-  <si>
     <t>2022-04</t>
   </si>
   <si>
-    <t>processed40</t>
-  </si>
-  <si>
     <t>atk_ttp, htool, atk_chain, sigma, etpro</t>
   </si>
   <si>
-    <t>processed30</t>
-  </si>
-  <si>
     <t>2021-10</t>
   </si>
   <si>
-    <t>processed60</t>
-  </si>
-  <si>
     <t>2021-08</t>
+  </si>
+  <si>
+    <t>processed-61_77</t>
+  </si>
+  <si>
+    <t>processed-32_48</t>
+  </si>
+  <si>
+    <t>processed-47_83</t>
+  </si>
+  <si>
+    <t>processed-54_69</t>
+  </si>
+  <si>
+    <t>processed-10_32</t>
+  </si>
+  <si>
+    <t>processed-35_60</t>
+  </si>
+  <si>
+    <t>processed-28_63</t>
+  </si>
+  <si>
+    <t>https://redcanary.com/blog/threat-detection/getsystem-offsec/</t>
+  </si>
+  <si>
+    <t>2021-01</t>
+  </si>
+  <si>
+    <t>GetSystem</t>
+  </si>
+  <si>
+    <t>adfind.xlsx</t>
+  </si>
+  <si>
+    <t>processed-10_10</t>
   </si>
 </sst>
 </file>
@@ -509,15 +527,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H49" totalsRowShown="0">
-  <autoFilter ref="A1:H49" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="conti"/>
-        <filter val="ryuk"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0">
+  <autoFilter ref="A1:H50" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{E96C26A5-EAFE-BF4D-AFCB-739F293826D0}" name="status"/>
     <tableColumn id="1" xr3:uid="{3EE7B3C7-A063-954C-9545-0F2010F95A61}" name="content"/>
@@ -849,16 +860,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07DD3A-F1B0-5046-8DBC-C64F8D37E24D}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.83203125" customWidth="1"/>
@@ -894,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -914,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
@@ -934,7 +945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -952,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -972,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -1032,7 +1043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1065,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -1077,7 +1088,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -1098,7 +1109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -1118,7 +1129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>50</v>
       </c>
@@ -1158,7 +1169,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>71</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>71</v>
       </c>
@@ -1238,7 +1249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1258,7 +1269,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>64</v>
       </c>
@@ -1272,7 +1283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>80</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>80</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>87</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>6</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>91</v>
       </c>
@@ -1347,7 +1358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>93</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>94</v>
       </c>
@@ -1365,7 +1376,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>94</v>
       </c>
@@ -1374,7 +1385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>98</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>100</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>98</v>
       </c>
@@ -1401,7 +1412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
         <v>103</v>
       </c>
@@ -1412,10 +1423,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
@@ -1427,13 +1438,13 @@
         <v>31</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F36" t="s">
         <v>106</v>
       </c>
@@ -1442,7 +1453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
         <v>106</v>
       </c>
@@ -1453,10 +1464,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
@@ -1476,10 +1487,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1491,7 +1502,7 @@
         <v>31</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H39" t="s">
         <v>109</v>
@@ -1499,10 +1510,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -1514,13 +1525,19 @@
         <v>31</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
@@ -1530,12 +1547,14 @@
       <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>113</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>39</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>6</v>
       </c>
@@ -1622,18 +1641,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
         <v>122</v>
@@ -1643,6 +1662,17 @@
       </c>
       <c r="H49" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F590BA3-453D-F440-B763-B83DE1023F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E25F32-7908-F748-8BFD-B6E0CC5BBBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
   <si>
     <t>status</t>
   </si>
@@ -459,6 +459,24 @@
   </si>
   <si>
     <t>processed-10_10</t>
+  </si>
+  <si>
+    <t>processed-8_34</t>
+  </si>
+  <si>
+    <t>processed-17_30</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>2020-10</t>
+  </si>
+  <si>
+    <t>processed-17_26</t>
+  </si>
+  <si>
+    <t>processed-19_25</t>
   </si>
 </sst>
 </file>
@@ -864,15 +882,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -1564,6 +1582,12 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
@@ -1573,12 +1597,20 @@
       <c r="E43" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="H43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
@@ -1588,12 +1620,20 @@
       <c r="E44" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="H44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
@@ -1603,12 +1643,20 @@
       <c r="E45" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H45" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
@@ -1618,7 +1666,9 @@
       <c r="E46" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="H46" t="s">
         <v>118</v>
       </c>

--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E25F32-7908-F748-8BFD-B6E0CC5BBBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB1D0C4-C3E5-6144-91E1-DC8043D639FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="760" windowWidth="34480" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
+    <workbookView xWindow="39180" yWindow="-21100" windowWidth="34480" windowHeight="21100" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="153">
   <si>
     <t>status</t>
   </si>
@@ -477,6 +477,24 @@
   </si>
   <si>
     <t>processed-19_25</t>
+  </si>
+  <si>
+    <t>https://www.nccgroup.com/us/research-blog/detecting-rclone-an-effective-tool-for-exfiltration/"</t>
+  </si>
+  <si>
+    <t>atk_ttp,htool</t>
+  </si>
+  <si>
+    <t>processed-4_4</t>
+  </si>
+  <si>
+    <t>rclone</t>
+  </si>
+  <si>
+    <t>rclone.xlsx</t>
+  </si>
+  <si>
+    <t>processed-23_27</t>
   </si>
 </sst>
 </file>
@@ -527,7 +545,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -545,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H50" totalsRowShown="0">
-  <autoFilter ref="A1:H50" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:H51" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}"/>
   <tableColumns count="8">
     <tableColumn id="9" xr3:uid="{E96C26A5-EAFE-BF4D-AFCB-739F293826D0}" name="status"/>
     <tableColumn id="1" xr3:uid="{3EE7B3C7-A063-954C-9545-0F2010F95A61}" name="content"/>
@@ -554,7 +582,7 @@
     <tableColumn id="4" xr3:uid="{1797171B-3F9B-C747-973C-23A5ADB7A223}" name="container"/>
     <tableColumn id="5" xr3:uid="{C678FA92-CC43-F941-A169-1884E2A28663}" name="tags"/>
     <tableColumn id="8" xr3:uid="{0EB1EE20-4759-234D-AD4D-FE24457B5CE3}" name="labels"/>
-    <tableColumn id="6" xr3:uid="{36700338-814F-2B40-87A3-9C8F6B125679}" name="report_date" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{36700338-814F-2B40-87A3-9C8F6B125679}" name="report_date" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{2CD6BEAC-EC9D-354C-83D5-520EE5AFEF43}" name="link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,11 +906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F07DD3A-F1B0-5046-8DBC-C64F8D37E24D}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1188,6 +1216,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1725,8 +1756,31 @@
         <v>136</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/delta2/lib_e/index.xlsx
+++ b/delta2/lib_e/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6687FDC3-C2AB-0C44-8EF6-0C403818E88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB31B0C6-09B7-284C-88EC-993D5B32CD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{6B3886FC-276B-A343-ADDC-9D0B272B6EC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="172">
   <si>
     <t>status</t>
   </si>
@@ -56,9 +56,6 @@
     <t>https://www.hhs.gov/sites/default/files/royal-blackcat-ransomware-tlpclear.pdf</t>
   </si>
   <si>
-    <t>blackcat, alphv</t>
-  </si>
-  <si>
     <t>alphv.xlsx</t>
   </si>
   <si>
@@ -552,6 +549,9 @@
   </si>
   <si>
     <t>https://falconforce.nl/falconfriday-detecting-active-directory-data-collection-0xff21/</t>
+  </si>
+  <si>
+    <t>2024-05</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}" name="Table1" displayName="Table1" ref="A1:K64" totalsRowShown="0">
   <autoFilter ref="A1:K64" xr:uid="{8485BF1E-1098-E146-881D-942226C6C9AA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K61">
-    <sortCondition ref="A1:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="9" xr3:uid="{E96C26A5-EAFE-BF4D-AFCB-739F293826D0}" name="status"/>
@@ -987,8 +987,8 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,28 +1010,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1051,23 +1051,23 @@
         <v>17</v>
       </c>
       <c r="D2" s="2">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D33" si="0">B2/C2</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -1084,31 +1084,31 @@
         <v>41</v>
       </c>
       <c r="D3" s="2">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.26829268292682928</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1117,29 +1117,29 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1148,31 +1148,31 @@
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -1181,31 +1181,31 @@
         <v>23</v>
       </c>
       <c r="D6" s="2">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1214,31 +1214,31 @@
         <v>25</v>
       </c>
       <c r="D7" s="2">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1247,31 +1247,31 @@
         <v>35</v>
       </c>
       <c r="D8" s="2">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1280,31 +1280,31 @@
         <v>13</v>
       </c>
       <c r="D9" s="2">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>61</v>
@@ -1313,31 +1313,31 @@
         <v>77</v>
       </c>
       <c r="D10" s="2">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>0.79220779220779225</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1">
         <v>2021</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>54</v>
@@ -1346,31 +1346,31 @@
         <v>69</v>
       </c>
       <c r="D11" s="2">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12">
         <v>39</v>
@@ -1379,31 +1379,31 @@
         <v>93</v>
       </c>
       <c r="D12" s="2">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.41935483870967744</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1412,31 +1412,31 @@
         <v>31</v>
       </c>
       <c r="D13" s="2">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.25806451612903225</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14">
         <v>49</v>
@@ -1445,31 +1445,31 @@
         <v>70</v>
       </c>
       <c r="D14" s="2">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15">
         <v>23</v>
@@ -1478,31 +1478,31 @@
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1511,31 +1511,31 @@
         <v>21</v>
       </c>
       <c r="D16" s="2">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" t="s">
-        <v>64</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17">
         <v>12</v>
@@ -1544,31 +1544,31 @@
         <v>42</v>
       </c>
       <c r="D17" s="2">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1577,31 +1577,31 @@
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1610,31 +1610,31 @@
         <v>19</v>
       </c>
       <c r="D19" s="2">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
         <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1643,31 +1643,31 @@
         <v>8</v>
       </c>
       <c r="D20" s="2">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
         <v>75</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>28</v>
@@ -1676,31 +1676,31 @@
         <v>63</v>
       </c>
       <c r="D21" s="2">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1709,31 +1709,31 @@
         <v>32</v>
       </c>
       <c r="D22" s="2">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23">
         <v>35</v>
@@ -1742,31 +1742,31 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24">
         <v>47</v>
@@ -1775,31 +1775,31 @@
         <v>63</v>
       </c>
       <c r="D24" s="2">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>0.74603174603174605</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>32</v>
@@ -1808,31 +1808,31 @@
         <v>48</v>
       </c>
       <c r="D25" s="2">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -1841,31 +1841,31 @@
         <v>34</v>
       </c>
       <c r="D26" s="2">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27">
         <v>17</v>
@@ -1874,31 +1874,31 @@
         <v>30</v>
       </c>
       <c r="D27" s="2">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.56666666666666665</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s">
         <v>114</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -1907,31 +1907,31 @@
         <v>26</v>
       </c>
       <c r="D28" s="2">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -1940,31 +1940,31 @@
         <v>25</v>
       </c>
       <c r="D29" s="2">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="E29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1973,31 +1973,31 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2006,28 +2006,28 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
         <v>135</v>
       </c>
-      <c r="G31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I31" t="s">
-        <v>136</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2036,29 +2036,29 @@
         <v>8</v>
       </c>
       <c r="D32" s="2">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2067,31 +2067,31 @@
         <v>24</v>
       </c>
       <c r="D33" s="2">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -2100,17 +2100,17 @@
         <v>8</v>
       </c>
       <c r="D34" s="2">
-        <f>B34/C34</f>
+        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
         <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" t="s">
@@ -2119,7 +2119,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2128,31 +2128,31 @@
         <v>5</v>
       </c>
       <c r="D35" s="2">
-        <f>B35/C35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -2161,31 +2161,31 @@
         <v>19</v>
       </c>
       <c r="D36" s="2">
-        <f>B36/C36</f>
+        <f t="shared" si="1"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -2194,31 +2194,31 @@
         <v>18</v>
       </c>
       <c r="D37" s="2">
-        <f>B37/C37</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" t="s">
         <v>154</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" t="s">
-        <v>157</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2227,31 +2227,31 @@
         <v>18</v>
       </c>
       <c r="D38" s="2">
-        <f>B38/C38</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2260,31 +2260,31 @@
         <v>13</v>
       </c>
       <c r="D39" s="2">
-        <f>B39/C39</f>
+        <f t="shared" si="1"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="E39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2293,31 +2293,31 @@
         <v>60</v>
       </c>
       <c r="D40" s="2">
-        <f>B40/C40</f>
+        <f t="shared" si="1"/>
         <v>0.38333333333333336</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41">
         <v>58</v>
@@ -2326,341 +2326,397 @@
         <v>204</v>
       </c>
       <c r="D41" s="2">
-        <f>B41/C41</f>
+        <f t="shared" si="1"/>
         <v>0.28431372549019607</v>
       </c>
       <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
         <v>165</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>166</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D42" s="2" t="e">
-        <f>B42/C42</f>
-        <v>#DIV/0!</v>
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" t="s">
+        <v>161</v>
       </c>
       <c r="H42" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>110</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19090909090909092</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" t="s">
         <v>81</v>
-      </c>
-      <c r="K42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D43" s="2" t="e">
-        <f>B43/C43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2">
-        <f>B44/C44</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="e">
-        <f>B45/C45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" t="s">
-        <v>86</v>
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>138</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D46" s="2" t="e">
-        <f>B46/C46</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H46" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D47" s="2" t="e">
-        <f>B47/C47</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47" s="1"/>
+      <c r="I47" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D48" s="2" t="e">
-        <f>B48/C48</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D49" s="2" t="e">
-        <f>B49/C49</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D50" s="2" t="e">
-        <f>B50/C50</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D51" s="2" t="e">
-        <f>B51/C51</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D52" s="2" t="e">
-        <f>B52/C52</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" t="s">
-        <v>99</v>
+      <c r="H52" t="s">
+        <v>96</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D53" s="2" t="e">
-        <f>B53/C53</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" t="s">
-        <v>97</v>
+      <c r="I53" t="s">
+        <v>98</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D54" s="2" t="e">
-        <f>B54/C54</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I54" t="s">
-        <v>102</v>
+      <c r="H54" t="s">
+        <v>96</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D55" s="2" t="e">
-        <f>B55/C55</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D56" s="2" t="e">
-        <f>B56/C56</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D57" s="2" t="e">
-        <f>B57/C57</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" t="s">
-        <v>112</v>
+      <c r="I57" t="s">
+        <v>104</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D58" s="2" t="e">
-        <f>B58/C58</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H58" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D59" s="2" t="e">
-        <f>B59/C59</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D60" s="2" t="e">
-        <f>B60/C60</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D61" s="2" t="e">
-        <f>B61/C61</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D62" s="2" t="e">
-        <f>B62/C62</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D63" s="2" t="e">
-        <f>B63/C63</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D64" s="2" t="e">
-        <f>B64/C64</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
